--- a/downloaded_files/AERS416_Lecture-35788.xlsx
+++ b/downloaded_files/AERS416_Lecture-35788.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -139,6 +139,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Hesham</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230078</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر وليد حامد عبدالحميد هلالى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Waleed Hamed Abd Elhamid</x:t>
   </x:si>
   <x:si>
     <x:t>1230088</x:t>
@@ -326,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -636,7 +645,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.650625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.120625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1101,7 +1110,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4144429745</x:v>
+        <x:v>45927.5476002315</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1142,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.540027581</x:v>
+        <x:v>45907.4144429745</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1174,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4163510417</x:v>
+        <x:v>45906.540027581</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1206,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6668108796</x:v>
+        <x:v>45907.4163510417</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1238,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4157517361</x:v>
+        <x:v>45906.6668108796</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1270,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4556035069</x:v>
+        <x:v>45907.4157517361</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1293,7 +1302,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6678039005</x:v>
+        <x:v>45906.4556035069</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1325,7 +1334,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6732090625</x:v>
+        <x:v>45906.6678039005</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1342,6 +1351,38 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45906.6732090625</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
